--- a/sict/day7/최종Test Folder/output/2023년5월17일 코로나 확진자 정리본.xlsx
+++ b/sict/day7/최종Test Folder/output/2023년5월17일 코로나 확진자 정리본.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Jun\learning\learning-uipath\sict\day7\최종Test Folder\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E336DB-EB78-4213-A8AC-E31DC398EF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="12456" yWindow="648" windowWidth="10032" windowHeight="10800" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
   </bookViews>
   <sheets>
     <sheet name="확진자 자료" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -558,23 +559,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477306A-D301-450E-9D52-D9E39890BC2C}">
   <dimension ref="A2:M373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
-    <col min="2" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="10" width="15.75" customWidth="1"/>
-    <col min="12" max="12" width="51.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="8"/>
+    <col min="1" max="1" width="11.69921875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="14.69921875" customWidth="1"/>
+    <col min="5" max="10" width="15.69921875" customWidth="1"/>
+    <col min="12" max="12" width="51.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.69921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.2" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="L2" s="5" t="s">
@@ -584,7 +585,7 @@
         <v>27933.1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L3" s="5" t="s">
         <v>16</v>
       </c>
@@ -592,7 +593,7 @@
         <v>255614</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
@@ -600,7 +601,7 @@
         <v>100191</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L5" s="5" t="s">
         <v>15</v>
       </c>
@@ -608,7 +609,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L6" s="5" t="s">
         <v>12</v>
       </c>
@@ -616,7 +617,7 @@
         <v>38179</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L7" s="5" t="s">
         <v>14</v>
       </c>
@@ -624,7 +625,7 @@
         <v>13935343</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -662,7 +663,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>44682</v>
       </c>
@@ -700,7 +701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>44683</v>
       </c>
@@ -732,7 +733,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>44684</v>
       </c>
@@ -764,7 +765,7 @@
         <v>7755</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>44685</v>
       </c>
@@ -796,7 +797,7 @@
         <v>7084</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>44686</v>
       </c>
@@ -828,7 +829,7 @@
         <v>6280</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>44687</v>
       </c>
@@ -860,7 +861,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>44688</v>
       </c>
@@ -892,7 +893,7 @@
         <v>5850</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>44689</v>
       </c>
@@ -924,7 +925,7 @@
         <v>5828</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>44690</v>
       </c>
@@ -956,7 +957,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>44691</v>
       </c>
@@ -988,7 +989,7 @@
         <v>7785</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>44692</v>
       </c>
@@ -1020,7 +1021,7 @@
         <v>6374</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>44693</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>5109</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>44694</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>4586</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>44695</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>4144</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>44696</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>44697</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>44698</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>5411</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>44699</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>4441</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>44700</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>44701</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>44702</v>
       </c>
@@ -1340,7 +1341,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>44703</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>44704</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>44705</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>44706</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>44707</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>44708</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>44709</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>44710</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>44711</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>44712</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>44713</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="12">
         <v>44714</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="12">
         <v>44715</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="12">
         <v>44716</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
         <v>44717</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="12">
         <v>44718</v>
       </c>
@@ -1852,7 +1853,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="12">
         <v>44719</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="12">
         <v>44720</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="12">
         <v>44721</v>
       </c>
@@ -1948,7 +1949,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="12">
         <v>44722</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="12">
         <v>44723</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="12">
         <v>44724</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="12">
         <v>44725</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="12">
         <v>44726</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="12">
         <v>44727</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="12">
         <v>44728</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="12">
         <v>44729</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="12">
         <v>44730</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="12">
         <v>44731</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="12">
         <v>44732</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="12">
         <v>44733</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="12">
         <v>44734</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="12">
         <v>44735</v>
       </c>
@@ -2396,7 +2397,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="12">
         <v>44736</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="12">
         <v>44737</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="12">
         <v>44738</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="12">
         <v>44739</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="12">
         <v>44740</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="12">
         <v>44741</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="12">
         <v>44742</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="12">
         <v>44743</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="12">
         <v>44744</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="12">
         <v>44745</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="12">
         <v>44746</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="12">
         <v>44747</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="12">
         <v>44748</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="12">
         <v>44749</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="12">
         <v>44750</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="12">
         <v>44751</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="12">
         <v>44752</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="12">
         <v>44753</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="12">
         <v>44754</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>5976</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="12">
         <v>44755</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>5846</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="12">
         <v>44756</v>
       </c>
@@ -3068,7 +3069,7 @@
         <v>5862</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="12">
         <v>44757</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="12">
         <v>44758</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="12">
         <v>44759</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>6057</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="12">
         <v>44760</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="12">
         <v>44761</v>
       </c>
@@ -3228,7 +3229,7 @@
         <v>11397</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="12">
         <v>44762</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>11427</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="12">
         <v>44763</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>10704</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="12">
         <v>44764</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="12">
         <v>44765</v>
       </c>
@@ -3356,7 +3357,7 @@
         <v>9836</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="12">
         <v>44766</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>9701</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="12">
         <v>44767</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="12">
         <v>44768</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>16313</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="12">
         <v>44769</v>
       </c>
@@ -3484,7 +3485,7 @@
         <v>15421</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="12">
         <v>44770</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>13630</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="12">
         <v>44771</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>12813</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="12">
         <v>44772</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>12245</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="12">
         <v>44773</v>
       </c>
@@ -3612,7 +3613,7 @@
         <v>11602</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="12">
         <v>44774</v>
       </c>
@@ -3644,7 +3645,7 @@
         <v>6969</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="12">
         <v>44775</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>18220</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="12">
         <v>44776</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>18205</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="12">
         <v>44777</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>16348</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="12">
         <v>44778</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>16640</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="12">
         <v>44779</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>16511</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="12">
         <v>44780</v>
       </c>
@@ -3836,7 +3837,7 @@
         <v>15714</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="12">
         <v>44781</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>8728</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="12">
         <v>44782</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>23885</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="12">
         <v>44783</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>22260</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="12">
         <v>44784</v>
       </c>
@@ -3964,7 +3965,7 @@
         <v>19602</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="12">
         <v>44785</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>18459</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="12">
         <v>44786</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>17902</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="12">
         <v>44787</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>17334</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="12">
         <v>44788</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>9423</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="12">
         <v>44789</v>
       </c>
@@ -4124,7 +4125,7 @@
         <v>13608</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="12">
         <v>44790</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>28027</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="12">
         <v>44791</v>
       </c>
@@ -4188,7 +4189,7 @@
         <v>25068</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="12">
         <v>44792</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>19497</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="12">
         <v>44793</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>17713</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="12">
         <v>44794</v>
       </c>
@@ -4284,7 +4285,7 @@
         <v>15622</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="12">
         <v>44795</v>
       </c>
@@ -4316,7 +4317,7 @@
         <v>8548</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="12">
         <v>44796</v>
       </c>
@@ -4348,7 +4349,7 @@
         <v>22536</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="12">
         <v>44797</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>19610</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="12">
         <v>44798</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>16383</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="12">
         <v>44799</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>13904</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="12">
         <v>44800</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="12">
         <v>44801</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>11994</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="12">
         <v>44802</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>6333</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="12">
         <v>44803</v>
       </c>
@@ -4572,7 +4573,7 @@
         <v>17263</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" s="12">
         <v>44804</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>15087</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="12">
         <v>44805</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>12422</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" s="12">
         <v>44806</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>12535</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="12">
         <v>44807</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>11092</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="12">
         <v>44808</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>10370</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="12">
         <v>44809</v>
       </c>
@@ -4764,7 +4765,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="12">
         <v>44810</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>15266</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="12">
         <v>44811</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>12540</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="12">
         <v>44812</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>10859</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" s="12">
         <v>44813</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>9652</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="12">
         <v>44814</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>5982</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" s="12">
         <v>44815</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="12">
         <v>44816</v>
       </c>
@@ -4988,7 +4989,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144" s="12">
         <v>44817</v>
       </c>
@@ -5020,7 +5021,7 @@
         <v>9418</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="12">
         <v>44818</v>
       </c>
@@ -5052,7 +5053,7 @@
         <v>14821</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="12">
         <v>44819</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>10707</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" s="12">
         <v>44820</v>
       </c>
@@ -5116,7 +5117,7 @@
         <v>7613</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148" s="12">
         <v>44821</v>
       </c>
@@ -5148,7 +5149,7 @@
         <v>5860</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149" s="12">
         <v>44822</v>
       </c>
@@ -5180,7 +5181,7 @@
         <v>4867</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150" s="12">
         <v>44823</v>
       </c>
@@ -5212,7 +5213,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151" s="12">
         <v>44824</v>
       </c>
@@ -5244,7 +5245,7 @@
         <v>7108</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152" s="12">
         <v>44825</v>
       </c>
@@ -5276,7 +5277,7 @@
         <v>5816</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153" s="12">
         <v>44826</v>
       </c>
@@ -5308,7 +5309,7 @@
         <v>4676</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154" s="12">
         <v>44827</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155" s="12">
         <v>44828</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>4136</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156" s="12">
         <v>44829</v>
       </c>
@@ -5404,7 +5405,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157" s="12">
         <v>44830</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158" s="12">
         <v>44831</v>
       </c>
@@ -5468,7 +5469,7 @@
         <v>5964</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159" s="12">
         <v>44832</v>
       </c>
@@ -5500,7 +5501,7 @@
         <v>5161</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160" s="12">
         <v>44833</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="12">
         <v>44834</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" s="12">
         <v>44835</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163" s="12">
         <v>44836</v>
       </c>
@@ -5628,7 +5629,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="12">
         <v>44837</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="12">
         <v>44838</v>
       </c>
@@ -5692,7 +5693,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="12">
         <v>44839</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="12">
         <v>44840</v>
       </c>
@@ -5756,7 +5757,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="12">
         <v>44841</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169" s="12">
         <v>44842</v>
       </c>
@@ -5820,7 +5821,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" s="12">
         <v>44843</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="12">
         <v>44844</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" s="12">
         <v>44845</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" s="12">
         <v>44846</v>
       </c>
@@ -5948,7 +5949,7 @@
         <v>4631</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174" s="12">
         <v>44847</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175" s="12">
         <v>44848</v>
       </c>
@@ -6012,7 +6013,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176" s="12">
         <v>44849</v>
       </c>
@@ -6044,7 +6045,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" s="12">
         <v>44850</v>
       </c>
@@ -6076,7 +6077,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" s="12">
         <v>44851</v>
       </c>
@@ -6108,7 +6109,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179" s="12">
         <v>44852</v>
       </c>
@@ -6140,7 +6141,7 @@
         <v>5149</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180" s="12">
         <v>44853</v>
       </c>
@@ -6172,7 +6173,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181" s="12">
         <v>44854</v>
       </c>
@@ -6204,7 +6205,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182" s="12">
         <v>44855</v>
       </c>
@@ -6236,7 +6237,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183" s="12">
         <v>44856</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>3906</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184" s="12">
         <v>44857</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>3888</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185" s="12">
         <v>44858</v>
       </c>
@@ -6332,7 +6333,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186" s="12">
         <v>44859</v>
       </c>
@@ -6364,7 +6365,7 @@
         <v>6780</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187" s="12">
         <v>44860</v>
       </c>
@@ -6396,7 +6397,7 @@
         <v>5932</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188" s="12">
         <v>44861</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>5305</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" s="12">
         <v>44862</v>
       </c>
@@ -6460,7 +6461,7 @@
         <v>5227</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190" s="12">
         <v>44863</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>5355</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191" s="12">
         <v>44864</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>5148</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192" s="12">
         <v>44865</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A193" s="12">
         <v>44866</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>9107</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A194" s="12">
         <v>44867</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>7981</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A195" s="12">
         <v>44868</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>7108</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A196" s="12">
         <v>44869</v>
       </c>
@@ -6684,7 +6685,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A197" s="12">
         <v>44870</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>5717</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A198" s="12">
         <v>44871</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199" s="12">
         <v>44872</v>
       </c>
@@ -6780,7 +6781,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A200" s="12">
         <v>44873</v>
       </c>
@@ -6812,7 +6813,7 @@
         <v>9804</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A201" s="12">
         <v>44874</v>
       </c>
@@ -6844,7 +6845,7 @@
         <v>9167</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A202" s="12">
         <v>44875</v>
       </c>
@@ -6876,7 +6877,7 @@
         <v>8374</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A203" s="12">
         <v>44876</v>
       </c>
@@ -6908,7 +6909,7 @@
         <v>7887</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A204" s="12">
         <v>44877</v>
       </c>
@@ -6940,7 +6941,7 @@
         <v>7735</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A205" s="12">
         <v>44878</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>6978</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A206" s="12">
         <v>44879</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A207" s="12">
         <v>44880</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>11537</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A208" s="12">
         <v>44881</v>
       </c>
@@ -7068,7 +7069,7 @@
         <v>9818</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A209" s="12">
         <v>44882</v>
       </c>
@@ -7100,7 +7101,7 @@
         <v>8342</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A210" s="12">
         <v>44883</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>7293</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A211" s="12">
         <v>44884</v>
       </c>
@@ -7164,7 +7165,7 @@
         <v>7173</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A212" s="12">
         <v>44885</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>6790</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A213" s="12">
         <v>44886</v>
       </c>
@@ -7228,7 +7229,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A214" s="12">
         <v>44887</v>
       </c>
@@ -7260,7 +7261,7 @@
         <v>11505</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A215" s="12">
         <v>44888</v>
       </c>
@@ -7292,7 +7293,7 @@
         <v>10479</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A216" s="12">
         <v>44889</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>8703</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A217" s="12">
         <v>44890</v>
       </c>
@@ -7356,7 +7357,7 @@
         <v>7770</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A218" s="12">
         <v>44891</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>7416</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A219" s="12">
         <v>44892</v>
       </c>
@@ -7420,7 +7421,7 @@
         <v>6902</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A220" s="12">
         <v>44893</v>
       </c>
@@ -7452,7 +7453,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A221" s="12">
         <v>44894</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>11218</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A222" s="12">
         <v>44895</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>9954</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A223" s="12">
         <v>44896</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>8639</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A224" s="12">
         <v>44897</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>7858</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A225" s="12">
         <v>44898</v>
       </c>
@@ -7612,7 +7613,7 @@
         <v>7459</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A226" s="12">
         <v>44899</v>
       </c>
@@ -7644,7 +7645,7 @@
         <v>7009</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A227" s="12">
         <v>44900</v>
       </c>
@@ -7676,7 +7677,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A228" s="12">
         <v>44901</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>12442</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A229" s="12">
         <v>44902</v>
       </c>
@@ -7740,7 +7741,7 @@
         <v>11090</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A230" s="12">
         <v>44903</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>9987</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A231" s="12">
         <v>44904</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A232" s="12">
         <v>44905</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>8932</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A233" s="12">
         <v>44906</v>
       </c>
@@ -7868,7 +7869,7 @@
         <v>8110</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A234" s="12">
         <v>44907</v>
       </c>
@@ -7900,7 +7901,7 @@
         <v>4155</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A235" s="12">
         <v>44908</v>
       </c>
@@ -7932,7 +7933,7 @@
         <v>14025</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A236" s="12">
         <v>44909</v>
       </c>
@@ -7964,7 +7965,7 @@
         <v>12919</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A237" s="12">
         <v>44910</v>
       </c>
@@ -7996,7 +7997,7 @@
         <v>10989</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A238" s="12">
         <v>44911</v>
       </c>
@@ -8028,7 +8029,7 @@
         <v>10266</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A239" s="12">
         <v>44912</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>9879</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A240" s="12">
         <v>44913</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>9115</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A241" s="12">
         <v>44914</v>
       </c>
@@ -8124,7 +8125,7 @@
         <v>4441</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A242" s="12">
         <v>44915</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>14502</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A243" s="12">
         <v>44916</v>
       </c>
@@ -8188,7 +8189,7 @@
         <v>13790</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A244" s="12">
         <v>44917</v>
       </c>
@@ -8220,7 +8221,7 @@
         <v>11829</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A245" s="12">
         <v>44918</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>10538</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A246" s="12">
         <v>44919</v>
       </c>
@@ -8284,7 +8285,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A247" s="12">
         <v>44920</v>
       </c>
@@ -8316,7 +8317,7 @@
         <v>9239</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A248" s="12">
         <v>44921</v>
       </c>
@@ -8348,7 +8349,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A249" s="12">
         <v>44922</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>14235</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A250" s="12">
         <v>44923</v>
       </c>
@@ -8412,7 +8413,7 @@
         <v>13150</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A251" s="12">
         <v>44924</v>
       </c>
@@ -8444,7 +8445,7 @@
         <v>10984</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A252" s="12">
         <v>44925</v>
       </c>
@@ -8476,7 +8477,7 @@
         <v>9754</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A253" s="12">
         <v>44926</v>
       </c>
@@ -8508,7 +8509,7 @@
         <v>9313</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A254" s="12">
         <v>44927</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>8759</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A255" s="12">
         <v>44928</v>
       </c>
@@ -8572,7 +8573,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A256" s="12">
         <v>44929</v>
       </c>
@@ -8604,7 +8605,7 @@
         <v>13388</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A257" s="12">
         <v>44930</v>
       </c>
@@ -8636,7 +8637,7 @@
         <v>11838</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A258" s="12">
         <v>44931</v>
       </c>
@@ -8668,7 +8669,7 @@
         <v>9764</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A259" s="12">
         <v>44932</v>
       </c>
@@ -8700,7 +8701,7 @@
         <v>8520</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A260" s="12">
         <v>44933</v>
       </c>
@@ -8732,7 +8733,7 @@
         <v>8018</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A261" s="12">
         <v>44934</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>7048</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A262" s="12">
         <v>44935</v>
       </c>
@@ -8796,7 +8797,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A263" s="12">
         <v>44936</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A264" s="12">
         <v>44937</v>
       </c>
@@ -8860,7 +8861,7 @@
         <v>8058</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A265" s="12">
         <v>44938</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>6617</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A266" s="12">
         <v>44939</v>
       </c>
@@ -8924,7 +8925,7 @@
         <v>6013</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A267" s="12">
         <v>44940</v>
       </c>
@@ -8956,7 +8957,7 @@
         <v>5293</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A268" s="12">
         <v>44941</v>
       </c>
@@ -8988,7 +8989,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A269" s="12">
         <v>44942</v>
       </c>
@@ -9020,7 +9021,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A270" s="12">
         <v>44943</v>
       </c>
@@ -9052,7 +9053,7 @@
         <v>6513</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A271" s="12">
         <v>44944</v>
       </c>
@@ -9084,7 +9085,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A272" s="12">
         <v>44945</v>
       </c>
@@ -9116,7 +9117,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A273" s="12">
         <v>44946</v>
       </c>
@@ -9148,7 +9149,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A274" s="12">
         <v>44947</v>
       </c>
@@ -9180,7 +9181,7 @@
         <v>3936</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A275" s="12">
         <v>44948</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A276" s="12">
         <v>44949</v>
       </c>
@@ -9244,7 +9245,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A277" s="12">
         <v>44950</v>
       </c>
@@ -9276,7 +9277,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A278" s="12">
         <v>44951</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A279" s="12">
         <v>44952</v>
       </c>
@@ -9340,7 +9341,7 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A280" s="12">
         <v>44953</v>
       </c>
@@ -9372,7 +9373,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A281" s="12">
         <v>44954</v>
       </c>
@@ -9404,7 +9405,7 @@
         <v>3362</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A282" s="12">
         <v>44955</v>
       </c>
@@ -9436,7 +9437,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A283" s="12">
         <v>44956</v>
       </c>
@@ -9468,7 +9469,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A284" s="12">
         <v>44957</v>
       </c>
@@ -9500,7 +9501,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A285" s="12">
         <v>44958</v>
       </c>
@@ -9532,7 +9533,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A286" s="12">
         <v>44959</v>
       </c>
@@ -9564,7 +9565,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A287" s="12">
         <v>44960</v>
       </c>
@@ -9596,7 +9597,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A288" s="12">
         <v>44961</v>
       </c>
@@ -9628,7 +9629,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A289" s="12">
         <v>44962</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A290" s="12">
         <v>44963</v>
       </c>
@@ -9692,7 +9693,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A291" s="12">
         <v>44964</v>
       </c>
@@ -9724,7 +9725,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A292" s="12">
         <v>44965</v>
       </c>
@@ -9756,7 +9757,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A293" s="12">
         <v>44966</v>
       </c>
@@ -9788,7 +9789,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A294" s="12">
         <v>44967</v>
       </c>
@@ -9820,7 +9821,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A295" s="12">
         <v>44968</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A296" s="12">
         <v>44969</v>
       </c>
@@ -9884,7 +9885,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A297" s="12">
         <v>44970</v>
       </c>
@@ -9916,7 +9917,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A298" s="12">
         <v>44971</v>
       </c>
@@ -9948,7 +9949,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A299" s="12">
         <v>44972</v>
       </c>
@@ -9980,7 +9981,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A300" s="12">
         <v>44973</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A301" s="12">
         <v>44974</v>
       </c>
@@ -10044,7 +10045,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A302" s="12">
         <v>44975</v>
       </c>
@@ -10076,7 +10077,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A303" s="12">
         <v>44976</v>
       </c>
@@ -10108,7 +10109,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A304" s="12">
         <v>44977</v>
       </c>
@@ -10140,7 +10141,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A305" s="12">
         <v>44978</v>
       </c>
@@ -10172,7 +10173,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A306" s="12">
         <v>44979</v>
       </c>
@@ -10204,7 +10205,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A307" s="12">
         <v>44980</v>
       </c>
@@ -10236,7 +10237,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A308" s="12">
         <v>44981</v>
       </c>
@@ -10268,7 +10269,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A309" s="12">
         <v>44982</v>
       </c>
@@ -10300,7 +10301,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A310" s="12">
         <v>44983</v>
       </c>
@@ -10332,7 +10333,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A311" s="12">
         <v>44984</v>
       </c>
@@ -10364,7 +10365,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A312" s="12">
         <v>44985</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A313" s="12">
         <v>44986</v>
       </c>
@@ -10428,7 +10429,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A314" s="12">
         <v>44987</v>
       </c>
@@ -10460,7 +10461,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A315" s="12">
         <v>44988</v>
       </c>
@@ -10492,7 +10493,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A316" s="12">
         <v>44989</v>
       </c>
@@ -10524,7 +10525,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A317" s="12">
         <v>44990</v>
       </c>
@@ -10556,7 +10557,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A318" s="12">
         <v>44991</v>
       </c>
@@ -10588,7 +10589,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A319" s="12">
         <v>44992</v>
       </c>
@@ -10620,7 +10621,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A320" s="12">
         <v>44993</v>
       </c>
@@ -10652,7 +10653,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A321" s="12">
         <v>44994</v>
       </c>
@@ -10684,7 +10685,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A322" s="12">
         <v>44995</v>
       </c>
@@ -10716,7 +10717,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A323" s="12">
         <v>44996</v>
       </c>
@@ -10748,7 +10749,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A324" s="12">
         <v>44997</v>
       </c>
@@ -10780,7 +10781,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A325" s="12">
         <v>44998</v>
       </c>
@@ -10812,7 +10813,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A326" s="12">
         <v>44999</v>
       </c>
@@ -10844,7 +10845,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A327" s="12">
         <v>45000</v>
       </c>
@@ -10876,7 +10877,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A328" s="12">
         <v>45001</v>
       </c>
@@ -10908,7 +10909,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A329" s="12">
         <v>45002</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A330" s="12">
         <v>45003</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A331" s="12">
         <v>45004</v>
       </c>
@@ -11004,7 +11005,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A332" s="12">
         <v>45005</v>
       </c>
@@ -11036,7 +11037,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A333" s="12">
         <v>45006</v>
       </c>
@@ -11068,7 +11069,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A334" s="12">
         <v>45007</v>
       </c>
@@ -11100,7 +11101,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A335" s="12">
         <v>45008</v>
       </c>
@@ -11132,7 +11133,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A336" s="12">
         <v>45009</v>
       </c>
@@ -11164,7 +11165,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A337" s="12">
         <v>45010</v>
       </c>
@@ -11196,7 +11197,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A338" s="12">
         <v>45011</v>
       </c>
@@ -11228,7 +11229,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A339" s="12">
         <v>45012</v>
       </c>
@@ -11260,7 +11261,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A340" s="12">
         <v>45013</v>
       </c>
@@ -11292,7 +11293,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A341" s="12">
         <v>45014</v>
       </c>
@@ -11324,7 +11325,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A342" s="12">
         <v>45015</v>
       </c>
@@ -11356,7 +11357,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A343" s="12">
         <v>45016</v>
       </c>
@@ -11388,7 +11389,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A344" s="12">
         <v>45017</v>
       </c>
@@ -11420,7 +11421,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A345" s="12">
         <v>45018</v>
       </c>
@@ -11452,7 +11453,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A346" s="12">
         <v>45019</v>
       </c>
@@ -11484,7 +11485,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A347" s="12">
         <v>45020</v>
       </c>
@@ -11516,7 +11517,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A348" s="12">
         <v>45021</v>
       </c>
@@ -11548,7 +11549,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A349" s="12">
         <v>45022</v>
       </c>
@@ -11580,7 +11581,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A350" s="12">
         <v>45023</v>
       </c>
@@ -11612,7 +11613,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A351" s="12">
         <v>45024</v>
       </c>
@@ -11644,7 +11645,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A352" s="12">
         <v>45025</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A353" s="12">
         <v>45026</v>
       </c>
@@ -11708,7 +11709,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A354" s="12">
         <v>45027</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A355" s="12">
         <v>45028</v>
       </c>
@@ -11772,7 +11773,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A356" s="12">
         <v>45029</v>
       </c>
@@ -11804,7 +11805,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A357" s="12">
         <v>45030</v>
       </c>
@@ -11836,7 +11837,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A358" s="12">
         <v>45031</v>
       </c>
@@ -11868,7 +11869,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A359" s="12">
         <v>45032</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A360" s="12">
         <v>45033</v>
       </c>
@@ -11932,7 +11933,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A361" s="12">
         <v>45034</v>
       </c>
@@ -11964,7 +11965,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A362" s="12">
         <v>45035</v>
       </c>
@@ -11996,7 +11997,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A363" s="12">
         <v>45036</v>
       </c>
@@ -12028,7 +12029,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A364" s="12">
         <v>45037</v>
       </c>
@@ -12060,7 +12061,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A365" s="12">
         <v>45038</v>
       </c>
@@ -12092,7 +12093,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A366" s="12">
         <v>45039</v>
       </c>
@@ -12124,7 +12125,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A367" s="12">
         <v>45040</v>
       </c>
@@ -12156,7 +12157,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A368" s="12">
         <v>45041</v>
       </c>
@@ -12188,7 +12189,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A369" s="12">
         <v>45042</v>
       </c>
@@ -12220,7 +12221,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A370" s="12">
         <v>45043</v>
       </c>
@@ -12252,7 +12253,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A371" s="12">
         <v>45044</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A372" s="12">
         <v>45045</v>
       </c>
@@ -12316,7 +12317,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A373" s="12">
         <v>45046</v>
       </c>

--- a/sict/day7/최종Test Folder/output/2023년5월17일 코로나 확진자 정리본.xlsx
+++ b/sict/day7/최종Test Folder/output/2023년5월17일 코로나 확진자 정리본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA12DB6-1D21-4930-B7DB-18CEB15CD34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58EF87C-7D9A-4731-BF02-262090D55EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10956" yWindow="804" windowWidth="11976" windowHeight="10800" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
+    <workbookView xWindow="2196" yWindow="528" windowWidth="11976" windowHeight="10800" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
   </bookViews>
   <sheets>
     <sheet name="확진자 자료" sheetId="3" r:id="rId1"/>
